--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H2">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I2">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J2">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N2">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O2">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P2">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q2">
-        <v>197.0938128107896</v>
+        <v>322.6846382165156</v>
       </c>
       <c r="R2">
-        <v>197.0938128107896</v>
+        <v>2904.161743948639</v>
       </c>
       <c r="S2">
-        <v>0.08616252357287428</v>
+        <v>0.1054211066265137</v>
       </c>
       <c r="T2">
-        <v>0.08616252357287428</v>
+        <v>0.1100702374548918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H3">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I3">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J3">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N3">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P3">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q3">
-        <v>553.6411921546286</v>
+        <v>751.1662153245289</v>
       </c>
       <c r="R3">
-        <v>553.6411921546286</v>
+        <v>6760.495937920759</v>
       </c>
       <c r="S3">
-        <v>0.2420325711377479</v>
+        <v>0.2454060847694512</v>
       </c>
       <c r="T3">
-        <v>0.2420325711377479</v>
+        <v>0.2562286328405438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H4">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I4">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J4">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N4">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O4">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P4">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q4">
-        <v>66.76384621046714</v>
+        <v>103.69276267728</v>
       </c>
       <c r="R4">
-        <v>66.76384621046714</v>
+        <v>933.2348640955199</v>
       </c>
       <c r="S4">
-        <v>0.02918681916437213</v>
+        <v>0.03387643691691495</v>
       </c>
       <c r="T4">
-        <v>0.02918681916437213</v>
+        <v>0.03537040707399187</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H5">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I5">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J5">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N5">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O5">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P5">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q5">
-        <v>68.9380378538186</v>
+        <v>86.72227593779554</v>
       </c>
       <c r="R5">
-        <v>68.9380378538186</v>
+        <v>780.5004834401599</v>
       </c>
       <c r="S5">
-        <v>0.03013729973020327</v>
+        <v>0.02833217704152972</v>
       </c>
       <c r="T5">
-        <v>0.03013729973020327</v>
+        <v>0.02958164218123367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.72696996340403</v>
+        <v>5.928253333333333</v>
       </c>
       <c r="H6">
-        <v>4.72696996340403</v>
+        <v>17.78476</v>
       </c>
       <c r="I6">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="J6">
-        <v>0.449577246734173</v>
+        <v>0.4729671618337555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N6">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O6">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P6">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q6">
-        <v>141.9556189598273</v>
+        <v>183.4445558599267</v>
       </c>
       <c r="R6">
-        <v>141.9556189598273</v>
+        <v>1100.66733515956</v>
       </c>
       <c r="S6">
-        <v>0.06205803312897552</v>
+        <v>0.05993135647934595</v>
       </c>
       <c r="T6">
-        <v>0.06205803312897552</v>
+        <v>0.0417162422830945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H7">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I7">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J7">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.6955923851178</v>
+        <v>54.43165466666667</v>
       </c>
       <c r="N7">
-        <v>41.6955923851178</v>
+        <v>163.294964</v>
       </c>
       <c r="O7">
-        <v>0.1916523227071156</v>
+        <v>0.2228930782800698</v>
       </c>
       <c r="P7">
-        <v>0.1916523227071156</v>
+        <v>0.2327227899462091</v>
       </c>
       <c r="Q7">
-        <v>241.3042917252428</v>
+        <v>359.571265058936</v>
       </c>
       <c r="R7">
-        <v>241.3042917252428</v>
+        <v>3236.141385530424</v>
       </c>
       <c r="S7">
-        <v>0.1054897991342413</v>
+        <v>0.1174719716535561</v>
       </c>
       <c r="T7">
-        <v>0.1054897991342413</v>
+        <v>0.1226525524913173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H8">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I8">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J8">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.123907374257</v>
+        <v>126.7095336666667</v>
       </c>
       <c r="N8">
-        <v>117.123907374257</v>
+        <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5383559174667427</v>
+        <v>0.5188649542136915</v>
       </c>
       <c r="P8">
-        <v>0.5383559174667427</v>
+        <v>0.541747194133123</v>
       </c>
       <c r="Q8">
-        <v>677.829475403391</v>
+        <v>837.0332960583739</v>
       </c>
       <c r="R8">
-        <v>677.829475403391</v>
+        <v>7533.299664525365</v>
       </c>
       <c r="S8">
-        <v>0.2963233463289948</v>
+        <v>0.2734588694442403</v>
       </c>
       <c r="T8">
-        <v>0.2963233463289948</v>
+        <v>0.2855185612925792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H9">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I9">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J9">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.1240259039828</v>
+        <v>17.491284</v>
       </c>
       <c r="N9">
-        <v>14.1240259039828</v>
+        <v>52.473852</v>
       </c>
       <c r="O9">
-        <v>0.06492058789983599</v>
+        <v>0.07162534664261168</v>
       </c>
       <c r="P9">
-        <v>0.06492058789983599</v>
+        <v>0.07478406521259567</v>
       </c>
       <c r="Q9">
-        <v>81.73976845298446</v>
+        <v>115.546057783848</v>
       </c>
       <c r="R9">
-        <v>81.73976845298446</v>
+        <v>1039.914520054632</v>
       </c>
       <c r="S9">
-        <v>0.03573376873546385</v>
+        <v>0.03774890972569672</v>
       </c>
       <c r="T9">
-        <v>0.03573376873546385</v>
+        <v>0.03941365813860381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H10">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I10">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J10">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.5839805176537</v>
+        <v>14.62863866666667</v>
       </c>
       <c r="N10">
-        <v>14.5839805176537</v>
+        <v>43.88591599999999</v>
       </c>
       <c r="O10">
-        <v>0.0670347530911032</v>
+        <v>0.05990305316690945</v>
       </c>
       <c r="P10">
-        <v>0.0670347530911032</v>
+        <v>0.06254481192001105</v>
       </c>
       <c r="Q10">
-        <v>84.40165705867865</v>
+        <v>96.63564599818399</v>
       </c>
       <c r="R10">
-        <v>84.40165705867865</v>
+        <v>869.7208139836558</v>
       </c>
       <c r="S10">
-        <v>0.03689745336089992</v>
+        <v>0.03157087612537973</v>
       </c>
       <c r="T10">
-        <v>0.03689745336089992</v>
+        <v>0.03296316973877738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.78728536811412</v>
+        <v>6.605922</v>
       </c>
       <c r="H11">
-        <v>5.78728536811412</v>
+        <v>19.817766</v>
       </c>
       <c r="I11">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="J11">
-        <v>0.5504227532658269</v>
+        <v>0.5270328381662445</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.0309966128071</v>
+        <v>30.9441155</v>
       </c>
       <c r="N11">
-        <v>30.0309966128071</v>
+        <v>61.888231</v>
       </c>
       <c r="O11">
-        <v>0.1380364188352026</v>
+        <v>0.1267135676967176</v>
       </c>
       <c r="P11">
-        <v>0.1380364188352026</v>
+        <v>0.08820113878806125</v>
       </c>
       <c r="Q11">
-        <v>173.7979472871832</v>
+        <v>204.414413351991</v>
       </c>
       <c r="R11">
-        <v>173.7979472871832</v>
+        <v>1226.486480111946</v>
       </c>
       <c r="S11">
-        <v>0.07597838570622704</v>
+        <v>0.06678221121737161</v>
       </c>
       <c r="T11">
-        <v>0.07597838570622704</v>
+        <v>0.04648489650496675</v>
       </c>
     </row>
   </sheetData>
